--- a/biology/Histoire de la zoologie et de la botanique/Daniel_Ziegler/Daniel_Ziegler.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Daniel_Ziegler/Daniel_Ziegler.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le révérend Daniel Ziegler est un homme d'église et un entomologiste américain, né le 11 juin 1804 à Reading et mort le 23 mai 1876 à York (Pennsylvanie).
 Il officie à Kreutz Creek et à York, en Pennsylvanie. Entomologiste passionné, il est l'ami du révérend Frederick Ernst Melsheimer (1782/4-1873) qui comme son père, le révérend Frederick Valentine Melsheimer (1749-1814), est un entomologiste bien connu. Leurs deux collections sont aujourd'hui conservées au Musée de l'université Harvard ; elles comprennent 14 774 spécimens représentant 5 302 espèces différentes.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Traduction de l'article de langue anglaise de Wikipédia.
  Portail de l’histoire de la zoologie et de la botanique   Portail des États-Unis   Portail de l’entomologie   Portail de la zoologie                  </t>
